--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>374.5497745383058</v>
+        <v>544.3632907939721</v>
       </c>
       <c r="R2">
-        <v>374.5497745383058</v>
+        <v>4899.269617145748</v>
       </c>
       <c r="S2">
-        <v>0.005698910530140634</v>
+        <v>0.007152063476580988</v>
       </c>
       <c r="T2">
-        <v>0.005698910530140634</v>
+        <v>0.007539210821963043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>3266.774461051268</v>
+        <v>3584.978634018715</v>
       </c>
       <c r="R3">
-        <v>3266.774461051268</v>
+        <v>32264.80770616843</v>
       </c>
       <c r="S3">
-        <v>0.04970515707459214</v>
+        <v>0.04710088866442787</v>
       </c>
       <c r="T3">
-        <v>0.04970515707459214</v>
+        <v>0.04965050026551033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>2666.435981459044</v>
+        <v>3010.704377033512</v>
       </c>
       <c r="R4">
-        <v>2666.435981459044</v>
+        <v>27096.33939330161</v>
       </c>
       <c r="S4">
-        <v>0.04057078958708258</v>
+        <v>0.03955584290475882</v>
       </c>
       <c r="T4">
-        <v>0.04057078958708258</v>
+        <v>0.04169703469158671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>2945.142740281128</v>
+        <v>3099.421107057176</v>
       </c>
       <c r="R5">
-        <v>2945.142740281128</v>
+        <v>27894.78996351458</v>
       </c>
       <c r="S5">
-        <v>0.04481141390632134</v>
+        <v>0.04072143892362058</v>
       </c>
       <c r="T5">
-        <v>0.04481141390632134</v>
+        <v>0.04292572542513716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>1160.836852982281</v>
+        <v>1329.718673037701</v>
       </c>
       <c r="R6">
-        <v>1160.836852982281</v>
+        <v>7978.312038226203</v>
       </c>
       <c r="S6">
-        <v>0.01766255332389596</v>
+        <v>0.01747037780907247</v>
       </c>
       <c r="T6">
-        <v>0.01766255332389596</v>
+        <v>0.01227737625402125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>105.4960292670904</v>
+        <v>162.3696912724409</v>
       </c>
       <c r="R7">
-        <v>105.4960292670904</v>
+        <v>1461.327221451968</v>
       </c>
       <c r="S7">
-        <v>0.001605160309652673</v>
+        <v>0.00213327819544847</v>
       </c>
       <c r="T7">
-        <v>0.001605160309652673</v>
+        <v>0.002248754378375765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>920.1226581349921</v>
+        <v>1069.307728621662</v>
       </c>
       <c r="R8">
-        <v>920.1226581349921</v>
+        <v>9623.769557594958</v>
       </c>
       <c r="S8">
-        <v>0.01399999963137133</v>
+        <v>0.01404899426621192</v>
       </c>
       <c r="T8">
-        <v>0.01399999963137133</v>
+        <v>0.01480947840526653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>751.0307773795159</v>
+        <v>898.0163587050807</v>
       </c>
       <c r="R9">
-        <v>751.0307773795159</v>
+        <v>8082.147228345727</v>
       </c>
       <c r="S9">
-        <v>0.0114272053986515</v>
+        <v>0.01179849947467835</v>
       </c>
       <c r="T9">
-        <v>0.0114272053986515</v>
+        <v>0.01243716239567593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>829.5315758965455</v>
+        <v>924.478297465927</v>
       </c>
       <c r="R10">
-        <v>829.5315758965455</v>
+        <v>8320.304677193342</v>
       </c>
       <c r="S10">
-        <v>0.01262162349126577</v>
+        <v>0.01214616705059982</v>
       </c>
       <c r="T10">
-        <v>0.01262162349126577</v>
+        <v>0.01280364951640906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>326.9623610573319</v>
+        <v>396.6211794065413</v>
       </c>
       <c r="R11">
-        <v>326.9623610573319</v>
+        <v>2379.727076439248</v>
       </c>
       <c r="S11">
-        <v>0.004974850791690189</v>
+        <v>0.00521096829864232</v>
       </c>
       <c r="T11">
-        <v>0.004974850791690189</v>
+        <v>0.003662028328716802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>796.1089771333505</v>
+        <v>1327.538246027067</v>
       </c>
       <c r="R12">
-        <v>796.1089771333505</v>
+        <v>11947.8442142436</v>
       </c>
       <c r="S12">
-        <v>0.01211308654108064</v>
+        <v>0.01744173048356424</v>
       </c>
       <c r="T12">
-        <v>0.01211308654108064</v>
+        <v>0.01838586635116272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>6943.559044772294</v>
+        <v>8742.684027992167</v>
       </c>
       <c r="R13">
-        <v>6943.559044772294</v>
+        <v>78684.1562519295</v>
       </c>
       <c r="S13">
-        <v>0.1056487667244854</v>
+        <v>0.114864892951711</v>
       </c>
       <c r="T13">
-        <v>0.1056487667244854</v>
+        <v>0.1210826283688339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>5667.53410653521</v>
+        <v>7342.201936805066</v>
       </c>
       <c r="R14">
-        <v>5667.53410653521</v>
+        <v>66079.8174312456</v>
       </c>
       <c r="S14">
-        <v>0.08623358494736313</v>
+        <v>0.09646479694344443</v>
       </c>
       <c r="T14">
-        <v>0.08623358494736313</v>
+        <v>0.1016865193431073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>6259.92787571984</v>
+        <v>7558.555342996532</v>
       </c>
       <c r="R15">
-        <v>6259.92787571984</v>
+        <v>68026.99808696879</v>
       </c>
       <c r="S15">
-        <v>0.09524707078741591</v>
+        <v>0.09930733485998722</v>
       </c>
       <c r="T15">
-        <v>0.09524707078741591</v>
+        <v>0.1046829262811067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>2467.369365755436</v>
+        <v>3242.78367914785</v>
       </c>
       <c r="R16">
-        <v>2467.369365755436</v>
+        <v>19456.7020748871</v>
       </c>
       <c r="S16">
-        <v>0.03754191890138757</v>
+        <v>0.04260499395589126</v>
       </c>
       <c r="T16">
-        <v>0.03754191890138757</v>
+        <v>0.02994082594053239</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>1002.695345277784</v>
+        <v>1401.379100834885</v>
       </c>
       <c r="R17">
-        <v>1002.695345277784</v>
+        <v>12612.41190751397</v>
       </c>
       <c r="S17">
-        <v>0.01525637298479312</v>
+        <v>0.01841188128116899</v>
       </c>
       <c r="T17">
-        <v>0.01525637298479312</v>
+        <v>0.01940853224558432</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>8745.378501979179</v>
+        <v>9228.973039908467</v>
       </c>
       <c r="R18">
-        <v>8745.378501979179</v>
+        <v>83060.7573591762</v>
       </c>
       <c r="S18">
-        <v>0.1330641026187497</v>
+        <v>0.1212539532355455</v>
       </c>
       <c r="T18">
-        <v>0.1330641026187497</v>
+        <v>0.1278175339791916</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>7138.23136160171</v>
+        <v>7750.592782649104</v>
       </c>
       <c r="R19">
-        <v>7138.23136160171</v>
+        <v>69755.33504384194</v>
       </c>
       <c r="S19">
-        <v>0.1086107765606242</v>
+        <v>0.1018303998452695</v>
       </c>
       <c r="T19">
-        <v>0.1086107765606242</v>
+        <v>0.1073425669433914</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>7884.348403356277</v>
+        <v>7978.980283151279</v>
       </c>
       <c r="R20">
-        <v>7884.348403356277</v>
+        <v>71810.82254836151</v>
       </c>
       <c r="S20">
-        <v>0.1199632176913493</v>
+        <v>0.1048310465245611</v>
       </c>
       <c r="T20">
-        <v>0.1199632176913493</v>
+        <v>0.1105056412074104</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>3107.639593554752</v>
+        <v>3423.155069231505</v>
       </c>
       <c r="R21">
-        <v>3107.639593554752</v>
+        <v>20538.93041538903</v>
       </c>
       <c r="S21">
-        <v>0.0472838624063299</v>
+        <v>0.04497478569801241</v>
       </c>
       <c r="T21">
-        <v>0.0472838624063299</v>
+        <v>0.03160620634498963</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H22">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I22">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J22">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>85.0031614587535</v>
+        <v>145.67269618798</v>
       </c>
       <c r="R22">
-        <v>85.0031614587535</v>
+        <v>874.03617712788</v>
       </c>
       <c r="S22">
-        <v>0.001293353900772384</v>
+        <v>0.00191390637017706</v>
       </c>
       <c r="T22">
-        <v>0.001293353900772384</v>
+        <v>0.001345005178389979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H23">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I23">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J23">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>741.3865281440021</v>
+        <v>959.347392128725</v>
       </c>
       <c r="R23">
-        <v>741.3865281440021</v>
+        <v>5756.08435277235</v>
       </c>
       <c r="S23">
-        <v>0.01128046465213438</v>
+        <v>0.01260429121623837</v>
       </c>
       <c r="T23">
-        <v>0.01128046465213438</v>
+        <v>0.00885771489135468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H24">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I24">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J24">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>605.1411685690724</v>
+        <v>805.6704620690799</v>
       </c>
       <c r="R24">
-        <v>605.1411685690724</v>
+        <v>4834.02277241448</v>
       </c>
       <c r="S24">
-        <v>0.009207442140449605</v>
+        <v>0.01058522200775152</v>
       </c>
       <c r="T24">
-        <v>0.009207442140449605</v>
+        <v>0.007438806117519873</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H25">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I25">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J25">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>668.3929904370802</v>
+        <v>829.41123496484</v>
       </c>
       <c r="R25">
-        <v>668.3929904370802</v>
+        <v>4976.46740978904</v>
       </c>
       <c r="S25">
-        <v>0.01016984152819053</v>
+        <v>0.01089713781398805</v>
       </c>
       <c r="T25">
-        <v>0.01016984152819053</v>
+        <v>0.007658006168863554</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H26">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I26">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J26">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>263.4491038286087</v>
+        <v>355.8353539791075</v>
       </c>
       <c r="R26">
-        <v>263.4491038286087</v>
+        <v>1423.34141591643</v>
       </c>
       <c r="S26">
-        <v>0.004008473570210155</v>
+        <v>0.004675107748647667</v>
       </c>
       <c r="T26">
-        <v>0.004008473570210155</v>
+        <v>0.002190300155898956</v>
       </c>
     </row>
   </sheetData>
